--- a/TODOS.xlsx
+++ b/TODOS.xlsx
@@ -1,19 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toren\Desktop\Sprint 4\Home-bnb\home-bnb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204659EA-75C0-43A0-9511-F503FFB86ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="7680" yWindow="4476" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+  <si>
+    <t>app-header</t>
+  </si>
+  <si>
+    <t>stay-filter</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>beckend</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>new one</t>
+  </si>
+  <si>
+    <t>date picker</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>stey</t>
+  </si>
+  <si>
+    <t>User list</t>
+  </si>
+  <si>
+    <t>create list</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>atlas</t>
+  </si>
+  <si>
+    <t>user msg</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>other, locations, maxprice</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>stay-details</t>
+  </si>
+  <si>
+    <t>add/adit stay</t>
+  </si>
+  <si>
+    <t>greets tag</t>
+  </si>
+  <si>
+    <t>spacing</t>
+  </si>
+  <si>
+    <t>create component</t>
+  </si>
+  <si>
+    <t>aminities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create </t>
+  </si>
+  <si>
+    <t>add reviews</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>stay-preview</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stay-list</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>fix cut</t>
+  </si>
+  <si>
+    <t>Main layout</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>same margin at all</t>
+  </si>
+  <si>
+    <t>margin top</t>
+  </si>
+  <si>
+    <t>carusela btns hover</t>
+  </si>
+  <si>
+    <t>responsive</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>delete imgs</t>
+  </si>
+  <si>
+    <t>list-filter</t>
+  </si>
+  <si>
+    <t>cretae</t>
+  </si>
+  <si>
+    <t>asi</t>
+  </si>
+  <si>
+    <t>eden</t>
+  </si>
+  <si>
+    <t>string obj</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +213,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,313 +545,329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2">
-      <c r="C2" t="str">
-        <v>app-header</v>
-      </c>
-      <c r="F2" t="str">
-        <v>stay-filter</v>
-      </c>
-      <c r="I2" t="str">
-        <v>order</v>
-      </c>
-      <c r="L2" t="str">
-        <v>db</v>
-      </c>
-      <c r="O2" t="str">
-        <v>beckend</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="str">
-        <v>mission</v>
-      </c>
-      <c r="D3" t="str">
-        <v>description</v>
-      </c>
-      <c r="F3" t="str">
-        <v>mission</v>
-      </c>
-      <c r="G3" t="str">
-        <v>description</v>
-      </c>
-      <c r="I3" t="str">
-        <v>mission</v>
-      </c>
-      <c r="J3" t="str">
-        <v>description</v>
-      </c>
-      <c r="L3" t="str">
-        <v>mission</v>
-      </c>
-      <c r="M3" t="str">
-        <v>description</v>
-      </c>
-      <c r="O3" t="str">
-        <v>mission</v>
-      </c>
-      <c r="P3" t="str">
-        <v>description</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="str">
-        <v>Logo</v>
-      </c>
-      <c r="D4" t="str">
-        <v>new one</v>
-      </c>
-      <c r="F4" t="str">
-        <v>date picker</v>
-      </c>
-      <c r="G4" t="str">
-        <v>position</v>
-      </c>
-      <c r="I4" t="str">
-        <v>data</v>
-      </c>
-      <c r="L4" t="str">
-        <v>stey</v>
-      </c>
-      <c r="O4" t="str">
-        <v>db</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="str">
-        <v>User list</v>
-      </c>
-      <c r="D5" t="str">
-        <v>create list</v>
-      </c>
-      <c r="I5" t="str">
-        <v>UI</v>
-      </c>
-      <c r="L5" t="str">
-        <v>user</v>
-      </c>
-      <c r="O5" t="str">
-        <v>atlas</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="I6" t="str">
-        <v>user msg</v>
-      </c>
-      <c r="L6" t="str">
-        <v>general</v>
-      </c>
-      <c r="M6" t="str">
-        <v>other, locations, maxprice</v>
-      </c>
-      <c r="O6" t="str">
-        <v>socket</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="str">
-        <v>stay-details</v>
-      </c>
-      <c r="L8" t="str">
-        <v>add/adit stay</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="str">
-        <v>mission</v>
-      </c>
-      <c r="D9" t="str">
-        <v>description</v>
-      </c>
-      <c r="L9" t="str">
-        <v>mission</v>
-      </c>
-      <c r="M9" t="str">
-        <v>description</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="str">
-        <v>greets tag</v>
-      </c>
-      <c r="D10" t="str">
-        <v>spacing</v>
-      </c>
-      <c r="L10" t="str">
-        <v>create component</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="str">
-        <v>aminities</v>
-      </c>
-      <c r="D11" t="str">
-        <v xml:space="preserve">create </v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="str">
-        <v>add reviews</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="str">
-        <v>chat</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="str">
-        <v>stay-preview</v>
-      </c>
-      <c r="F17" t="str">
-        <v>General</v>
-      </c>
-      <c r="I17" t="str">
-        <v>aminities</v>
-      </c>
-      <c r="L17" t="str">
-        <v>home</v>
-      </c>
-      <c r="O17" t="str">
-        <v>stay-list</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="str">
-        <v>mission</v>
-      </c>
-      <c r="D18" t="str">
-        <v>description</v>
-      </c>
-      <c r="F18" t="str">
-        <v>mission</v>
-      </c>
-      <c r="G18" t="str">
-        <v>description</v>
-      </c>
-      <c r="I18" t="str">
-        <v>mission</v>
-      </c>
-      <c r="J18" t="str">
-        <v>description</v>
-      </c>
-      <c r="L18" t="str">
-        <v>mission</v>
-      </c>
-      <c r="M18" t="str">
-        <v>description</v>
-      </c>
-      <c r="O18" t="str">
-        <v>mission</v>
-      </c>
-      <c r="P18" t="str">
-        <v>description</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="str">
-        <v>heart</v>
-      </c>
-      <c r="D19" t="str">
-        <v>fix cut</v>
-      </c>
-      <c r="F19" t="str">
-        <v>Main layout</v>
-      </c>
-      <c r="G19" t="str">
-        <v>max</v>
-      </c>
-      <c r="I19" t="str">
-        <v>create component</v>
-      </c>
-      <c r="L19" t="str">
-        <v>same margin at all</v>
-      </c>
-      <c r="O19" t="str">
-        <v>margin top</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="str">
-        <v>carusela btns hover</v>
-      </c>
-      <c r="F20" t="str">
-        <v>responsive</v>
-      </c>
-      <c r="G20" t="str">
-        <v>create</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="str">
-        <v>delete imgs</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="str">
-        <v>list-filter</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="str">
-        <v>mission</v>
-      </c>
-      <c r="D24" t="str">
-        <v>description</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="str">
-        <v>cretae</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="str">
-        <v>asi</v>
-      </c>
-      <c r="F31" t="str">
-        <v>eden</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>mission</v>
-      </c>
-      <c r="D32" t="str">
-        <v>description</v>
-      </c>
-      <c r="F32" t="str">
-        <v>mission</v>
-      </c>
-      <c r="G32" t="str">
-        <v>description</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="str">
-        <v>date picker</v>
-      </c>
-      <c r="F33" t="str">
-        <v>string obj</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="str">
-        <v>Main layout</v>
-      </c>
-      <c r="D34" t="str">
-        <v>max</v>
+    <row r="2" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="C2:P34"/>
+    <ignoredError sqref="C2:P34" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>